--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/artfynd/A 13326-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/artfynd/A 13326-2020.xlsx", "A 13326-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/kartor/A 13326-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/kartor/A 13326-2020.png", "A 13326-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomål/A 13326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomål/A 13326-2020.docx", "A 13326-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomålsmail/A 13326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomålsmail/A 13326-2020.docx", "A 13326-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsyn/A 13326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsyn/A 13326-2020.docx", "A 13326-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsynsmail/A 13326-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsynsmail/A 13326-2020.docx", "A 13326-2020")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/artfynd/A 24233-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/artfynd/A 24233-2023.xlsx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/kartor/A 24233-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/kartor/A 24233-2023.png", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomål/A 24233-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomål/A 24233-2023.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomålsmail/A 24233-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/klagomålsmail/A 24233-2023.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsyn/A 24233-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsyn/A 24233-2023.docx", "A 24233-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsynsmail/A 24233-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HUDDINGE/tillsynsmail/A 24233-2023.docx", "A 24233-2023")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt HUDDINGE.xlsx
+++ b/Översikt HUDDINGE.xlsx
@@ -572,7 +572,7 @@
         <v>43894</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45076</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>44144</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>44253</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>44253</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>44771</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>44782</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>44798</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>45076</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45076</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45076</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>45076</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45076</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>45076</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
